--- a/Tableau_synthese.xlsx
+++ b/Tableau_synthese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanny\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{71DA1FAF-BE4D-4594-85E4-0B89AB90F6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{065C28B3-AA57-4026-A6E9-8907DE182AC1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB10554A-E2D8-4624-A169-6E93977654E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -46,12 +34,6 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
@@ -59,9 +41,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -128,13 +107,50 @@
 </t>
   </si>
   <si>
+    <t>Réalisations en milieu professionnel en cours de première année</t>
+  </si>
+  <si>
+    <t>Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t>Centre de formation : Institution Les Chartreux, Lyon 69001</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://github.com/ThierryLyon69/FolioOral</t>
+  </si>
+  <si>
+    <t>N° candidat : 1948394596</t>
+  </si>
+  <si>
+    <t>01/11/22 au 06/12/22</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Réalisations en milieu professionnel en cours de première année</t>
-  </si>
-  <si>
-    <t>Réalisations en milieu professionnel en cours de seconde année</t>
+    <t>Veille technologique - L'avenir de Java</t>
+  </si>
+  <si>
+    <t>Migration application comptable (Stage de seconde année)</t>
+  </si>
+  <si>
+    <t>06/02/23 au 31/03/23</t>
+  </si>
+  <si>
+    <t>16/12/22 au 01/02/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP - Référencement d'un site web
+</t>
+  </si>
+  <si>
+    <t>Projet Prixy</t>
+  </si>
+  <si>
+    <t>10/12/21 au 07/01/22</t>
+  </si>
+  <si>
+    <t>Stage 1ère année - Implémentation d'une fonctionnalité dans une application comptable</t>
   </si>
 </sst>
 </file>
@@ -144,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -206,6 +222,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -606,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -671,6 +697,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,8 +799,77 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179387</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>451530</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>302984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB01063-755C-C131-FCBC-071EE6F0B534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14443075" y="1584551"/>
+          <a:ext cx="272143" cy="250371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1081,136 +1194,139 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.73046875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="18.59765625" style="1" customWidth="1"/>
     <col min="9" max="43" width="11" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="44" max="16384" width="10.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="35"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="B6" s="44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="41" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>22</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1248,17 +1364,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999">
-      <c r="A8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1295,15 +1411,20 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1340,17 +1461,21 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="H10" s="16"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1387,13 +1512,21 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="15"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11"/>
@@ -1432,7 +1565,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -1477,7 +1610,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
@@ -1522,7 +1655,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
@@ -1567,7 +1700,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
@@ -1612,7 +1745,7 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
@@ -1657,7 +1790,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
@@ -1702,7 +1835,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
@@ -1747,17 +1880,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999">
-      <c r="A19" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A19" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1794,14 +1927,20 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="23"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="E20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="22"/>
       <c r="H20" s="16"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -1839,7 +1978,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15"/>
@@ -1884,7 +2023,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="15"/>
@@ -1929,7 +2068,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15"/>
@@ -1974,7 +2113,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
@@ -2019,7 +2158,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>
@@ -2064,7 +2203,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="15"/>
@@ -2109,17 +2248,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999">
-      <c r="A27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A27" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2156,15 +2295,31 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2201,7 +2356,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
@@ -2246,7 +2401,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
@@ -2291,7 +2446,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="15"/>
@@ -2336,7 +2491,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
@@ -2381,7 +2536,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="15"/>
@@ -2426,7 +2581,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -2471,7 +2626,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="14.45">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2516,52 +2671,52 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1"/>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A6:A7"/>
@@ -2580,27 +2735,13 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F67FAFFF6622EA46A56A0B9F9D3D6381" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b3a53a3eb87022b0bb5d57aedb29600a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="256d7196-e029-48f3-9020-9ca775305906" xmlns:ns3="df0e35dd-c3e7-462f-87b0-0ac0fa0c6328" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c31759d3de9b648bd59bf6cabffaddef" ns2:_="" ns3:_="">
     <xsd:import namespace="256d7196-e029-48f3-9020-9ca775305906"/>
@@ -2817,14 +2958,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C8E0CF9-4DA9-461A-9D42-7F5EDB84B399}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF4C2BB-12AC-4142-A3E9-28B6F5ADC264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="256d7196-e029-48f3-9020-9ca775305906"/>
+    <ds:schemaRef ds:uri="df0e35dd-c3e7-462f-87b0-0ac0fa0c6328"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017DC1C-DD72-4F98-898D-9D6E1CB4C1E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C8E0CF9-4DA9-461A-9D42-7F5EDB84B399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="df0e35dd-c3e7-462f-87b0-0ac0fa0c6328"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="256d7196-e029-48f3-9020-9ca775305906"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF4C2BB-12AC-4142-A3E9-28B6F5ADC264}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017DC1C-DD72-4F98-898D-9D6E1CB4C1E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tableau_synthese.xlsx
+++ b/Tableau_synthese.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portal\Desktop\Folio\FolioOral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB10554A-E2D8-4624-A169-6E93977654E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4C1C84-583A-4865-B256-675601866B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -116,41 +116,28 @@
     <t>Centre de formation : Institution Les Chartreux, Lyon 69001</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio : https://github.com/ThierryLyon69/FolioOral</t>
-  </si>
-  <si>
     <t>N° candidat : 1948394596</t>
   </si>
   <si>
-    <t>01/11/22 au 06/12/22</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Veille technologique - L'avenir de Java</t>
-  </si>
-  <si>
-    <t>Migration application comptable (Stage de seconde année)</t>
-  </si>
-  <si>
     <t>06/02/23 au 31/03/23</t>
   </si>
   <si>
-    <t>16/12/22 au 01/02/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP - Référencement d'un site web
-</t>
-  </si>
-  <si>
-    <t>Projet Prixy</t>
-  </si>
-  <si>
-    <t>10/12/21 au 07/01/22</t>
-  </si>
-  <si>
-    <t>Stage 1ère année - Implémentation d'une fonctionnalité dans une application comptable</t>
+    <t>Adresse URL du portfolio : https://folioportal.000webhostapp.com/</t>
+  </si>
+  <si>
+    <t>30/05/22 au 01/07/22</t>
+  </si>
+  <si>
+    <t>Pix</t>
+  </si>
+  <si>
+    <t>Stage 2nd année - Migration application comptable vers Laravel (Stage de seconde année) - PHP JQUERY AJAX DATATABLES</t>
+  </si>
+  <si>
+    <t>Stage 1ère année - Implémentation d'une fonctionnalité dans une application comptable - PHP JQUERY AJAX</t>
   </si>
 </sst>
 </file>
@@ -160,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,11 +205,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -241,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -346,51 +328,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
@@ -632,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -658,128 +595,110 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1211,81 +1130,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="12" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="A5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1308,24 +1227,24 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I7"/>
@@ -1365,16 +1284,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1412,18 +1331,19 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="25" t="s">
-        <v>27</v>
+      <c r="A9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="20">
+        <v>44958</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1462,20 +1382,14 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1513,22 +1427,16 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="A11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1566,14 +1474,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1611,14 +1523,14 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1656,14 +1568,16 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="A14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1701,14 +1615,28 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="18"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1746,15 +1674,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -1791,15 +1718,6 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -1836,15 +1754,6 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -1880,18 +1789,7 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -1928,22 +1826,6 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="16"/>
-      <c r="I20"/>
-      <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
@@ -1979,14 +1861,14 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2024,14 +1906,14 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2069,14 +1951,14 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2114,14 +1996,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2159,14 +2041,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2204,14 +2086,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2248,17 +2130,15 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2296,30 +2176,14 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2357,14 +2221,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2402,14 +2266,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2447,14 +2311,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2492,14 +2356,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2537,14 +2401,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2581,15 +2445,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2719,18 +2583,18 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2742,6 +2606,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F67FAFFF6622EA46A56A0B9F9D3D6381" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b3a53a3eb87022b0bb5d57aedb29600a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="256d7196-e029-48f3-9020-9ca775305906" xmlns:ns3="df0e35dd-c3e7-462f-87b0-0ac0fa0c6328" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c31759d3de9b648bd59bf6cabffaddef" ns2:_="" ns3:_="">
     <xsd:import namespace="256d7196-e029-48f3-9020-9ca775305906"/>
@@ -2958,12 +2828,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2974,6 +2838,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C8E0CF9-4DA9-461A-9D42-7F5EDB84B399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="256d7196-e029-48f3-9020-9ca775305906"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="df0e35dd-c3e7-462f-87b0-0ac0fa0c6328"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF4C2BB-12AC-4142-A3E9-28B6F5ADC264}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2992,23 +2873,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C8E0CF9-4DA9-461A-9D42-7F5EDB84B399}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="df0e35dd-c3e7-462f-87b0-0ac0fa0c6328"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="256d7196-e029-48f3-9020-9ca775305906"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B017DC1C-DD72-4F98-898D-9D6E1CB4C1E1}">
   <ds:schemaRefs>
